--- a/Data Mix/Resultat/Bretagne.xlsx
+++ b/Data Mix/Resultat/Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Région</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -884,29 +884,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2014-1</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50579810</v>
+        <v>311438323</v>
       </c>
       <c r="D14" t="n">
-        <v>640302</v>
+        <v>3479926</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3203070</v>
+        <v>18050822</v>
       </c>
       <c r="G14" t="n">
-        <v>311652</v>
+        <v>1963966</v>
       </c>
       <c r="H14" t="n">
-        <v>1135950</v>
+        <v>6885810</v>
       </c>
       <c r="I14" t="n">
-        <v>429329</v>
+        <v>2271206</v>
       </c>
     </row>
     <row r="15">
@@ -917,29 +917,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014-2</t>
+          <t>2014-1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54909143</v>
+        <v>50579810</v>
       </c>
       <c r="D15" t="n">
-        <v>748957</v>
+        <v>640302</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3640889</v>
+        <v>3203070</v>
       </c>
       <c r="G15" t="n">
-        <v>328121</v>
+        <v>311652</v>
       </c>
       <c r="H15" t="n">
-        <v>1234094</v>
+        <v>1135950</v>
       </c>
       <c r="I15" t="n">
-        <v>471119</v>
+        <v>429329</v>
       </c>
     </row>
     <row r="16">
@@ -950,29 +950,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2014-3</t>
+          <t>2014-2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59087484</v>
+        <v>54909143</v>
       </c>
       <c r="D16" t="n">
-        <v>870970</v>
+        <v>748957</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3861537</v>
+        <v>3640889</v>
       </c>
       <c r="G16" t="n">
-        <v>358647</v>
+        <v>328121</v>
       </c>
       <c r="H16" t="n">
-        <v>1347729</v>
+        <v>1234094</v>
       </c>
       <c r="I16" t="n">
-        <v>521849</v>
+        <v>471119</v>
       </c>
     </row>
     <row r="17">
@@ -983,29 +983,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2014-4</t>
+          <t>2014-3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62575359</v>
+        <v>59087484</v>
       </c>
       <c r="D17" t="n">
-        <v>873239</v>
+        <v>870970</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4067676</v>
+        <v>3861537</v>
       </c>
       <c r="G17" t="n">
-        <v>394119</v>
+        <v>358647</v>
       </c>
       <c r="H17" t="n">
-        <v>1424838</v>
+        <v>1347729</v>
       </c>
       <c r="I17" t="n">
-        <v>561102</v>
+        <v>521849</v>
       </c>
     </row>
     <row r="18">
@@ -1016,29 +1016,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2014-5</t>
+          <t>2014-4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65706093</v>
+        <v>62575359</v>
       </c>
       <c r="D18" t="n">
-        <v>876548</v>
+        <v>873239</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4275707</v>
+        <v>4067676</v>
       </c>
       <c r="G18" t="n">
-        <v>436886</v>
+        <v>394119</v>
       </c>
       <c r="H18" t="n">
-        <v>1522441</v>
+        <v>1424838</v>
       </c>
       <c r="I18" t="n">
-        <v>605799</v>
+        <v>561102</v>
       </c>
     </row>
     <row r="19">
@@ -1049,29 +1049,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2014-6</t>
+          <t>2014-5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>68557289</v>
+        <v>65706093</v>
       </c>
       <c r="D19" t="n">
-        <v>878761</v>
+        <v>876548</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4429899</v>
+        <v>4275707</v>
       </c>
       <c r="G19" t="n">
-        <v>486144</v>
+        <v>436886</v>
       </c>
       <c r="H19" t="n">
-        <v>1610012</v>
+        <v>1522441</v>
       </c>
       <c r="I19" t="n">
-        <v>645019</v>
+        <v>605799</v>
       </c>
     </row>
     <row r="20">
@@ -1082,29 +1082,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2014-7</t>
+          <t>2014-6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71554200</v>
+        <v>68557289</v>
       </c>
       <c r="D20" t="n">
-        <v>881733</v>
+        <v>878761</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4561389</v>
+        <v>4429899</v>
       </c>
       <c r="G20" t="n">
-        <v>532647</v>
+        <v>486144</v>
       </c>
       <c r="H20" t="n">
-        <v>1704052</v>
+        <v>1610012</v>
       </c>
       <c r="I20" t="n">
-        <v>690713</v>
+        <v>645019</v>
       </c>
     </row>
     <row r="21">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2014-8</t>
+          <t>2014-7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74423903</v>
+        <v>71554200</v>
       </c>
       <c r="D21" t="n">
-        <v>882666</v>
+        <v>881733</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4713756</v>
+        <v>4561389</v>
       </c>
       <c r="G21" t="n">
-        <v>571659</v>
+        <v>532647</v>
       </c>
       <c r="H21" t="n">
-        <v>1798880</v>
+        <v>1704052</v>
       </c>
       <c r="I21" t="n">
-        <v>740162</v>
+        <v>690713</v>
       </c>
     </row>
     <row r="22">
@@ -1148,29 +1148,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2014-9</t>
+          <t>2014-8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77371533</v>
+        <v>74423903</v>
       </c>
       <c r="D22" t="n">
-        <v>884783</v>
+        <v>882666</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4810233</v>
+        <v>4713756</v>
       </c>
       <c r="G22" t="n">
-        <v>611198</v>
+        <v>571659</v>
       </c>
       <c r="H22" t="n">
-        <v>1884552</v>
+        <v>1798880</v>
       </c>
       <c r="I22" t="n">
-        <v>782205</v>
+        <v>740162</v>
       </c>
     </row>
     <row r="23">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>80665314</v>
+        <v>77371533</v>
       </c>
       <c r="D23" t="n">
-        <v>899151</v>
+        <v>884783</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5044800</v>
+        <v>4810233</v>
       </c>
       <c r="G23" t="n">
-        <v>634879</v>
+        <v>611198</v>
       </c>
       <c r="H23" t="n">
-        <v>1976842</v>
+        <v>1884552</v>
       </c>
       <c r="I23" t="n">
-        <v>832649</v>
+        <v>782205</v>
       </c>
     </row>
     <row r="24">
@@ -1214,29 +1214,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>84470776</v>
+        <v>80665314</v>
       </c>
       <c r="D24" t="n">
-        <v>1018537</v>
+        <v>899151</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>5295272</v>
+        <v>5044800</v>
       </c>
       <c r="G24" t="n">
-        <v>647516</v>
+        <v>634879</v>
       </c>
       <c r="H24" t="n">
-        <v>2081317</v>
+        <v>1976842</v>
       </c>
       <c r="I24" t="n">
-        <v>887989</v>
+        <v>832649</v>
       </c>
     </row>
     <row r="25">
@@ -1247,29 +1247,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>89115303</v>
+        <v>84470776</v>
       </c>
       <c r="D25" t="n">
-        <v>1176298</v>
+        <v>1018537</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5597488</v>
+        <v>5295272</v>
       </c>
       <c r="G25" t="n">
-        <v>656400</v>
+        <v>647516</v>
       </c>
       <c r="H25" t="n">
-        <v>2189625</v>
+        <v>2081317</v>
       </c>
       <c r="I25" t="n">
-        <v>941388</v>
+        <v>887989</v>
       </c>
     </row>
     <row r="26">
@@ -1280,29 +1280,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-1</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>93959383</v>
+        <v>89115303</v>
       </c>
       <c r="D26" t="n">
-        <v>1336896</v>
+        <v>1176298</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5965011</v>
+        <v>5597488</v>
       </c>
       <c r="G26" t="n">
-        <v>667964</v>
+        <v>656400</v>
       </c>
       <c r="H26" t="n">
-        <v>2305507</v>
+        <v>2189625</v>
       </c>
       <c r="I26" t="n">
-        <v>993168</v>
+        <v>941388</v>
       </c>
     </row>
     <row r="27">
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-2</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>98572022</v>
+        <v>1461892853</v>
       </c>
       <c r="D27" t="n">
-        <v>1489424</v>
+        <v>17591797</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6289479</v>
+        <v>89603360</v>
       </c>
       <c r="G27" t="n">
-        <v>687277</v>
+        <v>9897800</v>
       </c>
       <c r="H27" t="n">
-        <v>2412621</v>
+        <v>33681952</v>
       </c>
       <c r="I27" t="n">
-        <v>1036101</v>
+        <v>12651735</v>
       </c>
     </row>
     <row r="28">
@@ -1346,29 +1346,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2015-3</t>
+          <t>2015-1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>102951362</v>
+        <v>93959383</v>
       </c>
       <c r="D28" t="n">
-        <v>1653173</v>
+        <v>1336896</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6618329</v>
+        <v>5965011</v>
       </c>
       <c r="G28" t="n">
-        <v>715439</v>
+        <v>667964</v>
       </c>
       <c r="H28" t="n">
-        <v>2519764</v>
+        <v>2305507</v>
       </c>
       <c r="I28" t="n">
-        <v>1090336</v>
+        <v>993168</v>
       </c>
     </row>
     <row r="29">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2015-4</t>
+          <t>2015-2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>106321704</v>
+        <v>98572022</v>
       </c>
       <c r="D29" t="n">
-        <v>1657816</v>
+        <v>1489424</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6826423</v>
+        <v>6289479</v>
       </c>
       <c r="G29" t="n">
-        <v>759026</v>
+        <v>687277</v>
       </c>
       <c r="H29" t="n">
-        <v>2612490</v>
+        <v>2412621</v>
       </c>
       <c r="I29" t="n">
-        <v>1141543</v>
+        <v>1036101</v>
       </c>
     </row>
     <row r="30">
@@ -1412,29 +1412,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015-5</t>
+          <t>2015-3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>109445453</v>
+        <v>102951362</v>
       </c>
       <c r="D30" t="n">
-        <v>1658660</v>
+        <v>1653173</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7051999</v>
+        <v>6618329</v>
       </c>
       <c r="G30" t="n">
-        <v>802157</v>
+        <v>715439</v>
       </c>
       <c r="H30" t="n">
-        <v>2703098</v>
+        <v>2519764</v>
       </c>
       <c r="I30" t="n">
-        <v>1197568</v>
+        <v>1090336</v>
       </c>
     </row>
     <row r="31">
@@ -1445,29 +1445,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2015-6</t>
+          <t>2015-4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>112342651</v>
+        <v>106321704</v>
       </c>
       <c r="D31" t="n">
-        <v>1662981</v>
+        <v>1657816</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7246515</v>
+        <v>6826423</v>
       </c>
       <c r="G31" t="n">
-        <v>856632</v>
+        <v>759026</v>
       </c>
       <c r="H31" t="n">
-        <v>2793816</v>
+        <v>2612490</v>
       </c>
       <c r="I31" t="n">
-        <v>1247179</v>
+        <v>1141543</v>
       </c>
     </row>
     <row r="32">
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2015-7</t>
+          <t>2015-5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>115313159</v>
+        <v>109445453</v>
       </c>
       <c r="D32" t="n">
-        <v>1666364</v>
+        <v>1658660</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7425794</v>
+        <v>7051999</v>
       </c>
       <c r="G32" t="n">
-        <v>902575</v>
+        <v>802157</v>
       </c>
       <c r="H32" t="n">
-        <v>2877242</v>
+        <v>2703098</v>
       </c>
       <c r="I32" t="n">
-        <v>1301733</v>
+        <v>1197568</v>
       </c>
     </row>
     <row r="33">
@@ -1511,29 +1511,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2015-8</t>
+          <t>2015-6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>118185223</v>
+        <v>112342651</v>
       </c>
       <c r="D33" t="n">
-        <v>1667260</v>
+        <v>1662981</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7592215</v>
+        <v>7246515</v>
       </c>
       <c r="G33" t="n">
-        <v>942705</v>
+        <v>856632</v>
       </c>
       <c r="H33" t="n">
-        <v>2974293</v>
+        <v>2793816</v>
       </c>
       <c r="I33" t="n">
-        <v>1358551</v>
+        <v>1247179</v>
       </c>
     </row>
     <row r="34">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2015-9</t>
+          <t>2015-7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>121135228</v>
+        <v>115313159</v>
       </c>
       <c r="D34" t="n">
-        <v>1668754</v>
+        <v>1666364</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7788227</v>
+        <v>7425794</v>
       </c>
       <c r="G34" t="n">
-        <v>983004</v>
+        <v>902575</v>
       </c>
       <c r="H34" t="n">
-        <v>3059016</v>
+        <v>2877242</v>
       </c>
       <c r="I34" t="n">
-        <v>1409960</v>
+        <v>1301733</v>
       </c>
     </row>
     <row r="35">
@@ -1577,29 +1577,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>124587890</v>
+        <v>118185223</v>
       </c>
       <c r="D35" t="n">
-        <v>1670859</v>
+        <v>1667260</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8009708</v>
+        <v>7592215</v>
       </c>
       <c r="G35" t="n">
-        <v>1007144</v>
+        <v>942705</v>
       </c>
       <c r="H35" t="n">
-        <v>3150435</v>
+        <v>2974293</v>
       </c>
       <c r="I35" t="n">
-        <v>1458627</v>
+        <v>1358551</v>
       </c>
     </row>
     <row r="36">
@@ -1610,29 +1610,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>128211488</v>
+        <v>121135228</v>
       </c>
       <c r="D36" t="n">
-        <v>1802339</v>
+        <v>1668754</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8400412</v>
+        <v>7788227</v>
       </c>
       <c r="G36" t="n">
-        <v>1020710</v>
+        <v>983004</v>
       </c>
       <c r="H36" t="n">
-        <v>3239984</v>
+        <v>3059016</v>
       </c>
       <c r="I36" t="n">
-        <v>1511416</v>
+        <v>1409960</v>
       </c>
     </row>
     <row r="37">
@@ -1643,29 +1643,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>132229032</v>
+        <v>124587890</v>
       </c>
       <c r="D37" t="n">
-        <v>2003074</v>
+        <v>1670859</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8901279</v>
+        <v>8009708</v>
       </c>
       <c r="G37" t="n">
-        <v>1031068</v>
+        <v>1007144</v>
       </c>
       <c r="H37" t="n">
-        <v>3332533</v>
+        <v>3150435</v>
       </c>
       <c r="I37" t="n">
-        <v>1564240</v>
+        <v>1458627</v>
       </c>
     </row>
     <row r="38">
@@ -1676,29 +1676,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2016-1</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>137006817</v>
+        <v>128211488</v>
       </c>
       <c r="D38" t="n">
-        <v>2220753</v>
+        <v>1802339</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9356572</v>
+        <v>8400412</v>
       </c>
       <c r="G38" t="n">
-        <v>1041767</v>
+        <v>1020710</v>
       </c>
       <c r="H38" t="n">
-        <v>3439544</v>
+        <v>3239984</v>
       </c>
       <c r="I38" t="n">
-        <v>1616129</v>
+        <v>1511416</v>
       </c>
     </row>
     <row r="39">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2016-2</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>141473451</v>
+        <v>132229032</v>
       </c>
       <c r="D39" t="n">
-        <v>2433950</v>
+        <v>2003074</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>9757307</v>
+        <v>8901279</v>
       </c>
       <c r="G39" t="n">
-        <v>1061084</v>
+        <v>1031068</v>
       </c>
       <c r="H39" t="n">
-        <v>3546972</v>
+        <v>3332533</v>
       </c>
       <c r="I39" t="n">
-        <v>1663382</v>
+        <v>1564240</v>
       </c>
     </row>
     <row r="40">
@@ -1742,29 +1742,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2016-3</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>146068768</v>
+        <v>4287040301</v>
       </c>
       <c r="D40" t="n">
-        <v>2659957</v>
+        <v>55121194</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>10138111</v>
+        <v>267322111</v>
       </c>
       <c r="G40" t="n">
-        <v>1093917</v>
+        <v>30171301</v>
       </c>
       <c r="H40" t="n">
-        <v>3655662</v>
+        <v>101344703</v>
       </c>
       <c r="I40" t="n">
-        <v>1713843</v>
+        <v>40613892</v>
       </c>
     </row>
     <row r="41">
@@ -1775,29 +1775,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2016-4</t>
+          <t>2016-1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>149905449</v>
+        <v>137006817</v>
       </c>
       <c r="D41" t="n">
-        <v>2664327</v>
+        <v>2220753</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>10372555</v>
+        <v>9356572</v>
       </c>
       <c r="G41" t="n">
-        <v>1133964</v>
+        <v>1041767</v>
       </c>
       <c r="H41" t="n">
-        <v>3751982</v>
+        <v>3439544</v>
       </c>
       <c r="I41" t="n">
-        <v>1760461</v>
+        <v>1616129</v>
       </c>
     </row>
     <row r="42">
@@ -1808,29 +1808,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2016-5</t>
+          <t>2016-2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>153030366</v>
+        <v>141473451</v>
       </c>
       <c r="D42" t="n">
-        <v>2666266</v>
+        <v>2433950</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>10543739</v>
+        <v>9757307</v>
       </c>
       <c r="G42" t="n">
-        <v>1180761</v>
+        <v>1061084</v>
       </c>
       <c r="H42" t="n">
-        <v>3849217</v>
+        <v>3546972</v>
       </c>
       <c r="I42" t="n">
-        <v>1814881</v>
+        <v>1663382</v>
       </c>
     </row>
     <row r="43">
@@ -1841,29 +1841,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2016-6</t>
+          <t>2016-3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>155946775</v>
+        <v>146068768</v>
       </c>
       <c r="D43" t="n">
-        <v>2669880</v>
+        <v>2659957</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10670423</v>
+        <v>10138111</v>
       </c>
       <c r="G43" t="n">
-        <v>1218106</v>
+        <v>1093917</v>
       </c>
       <c r="H43" t="n">
-        <v>3941257</v>
+        <v>3655662</v>
       </c>
       <c r="I43" t="n">
-        <v>1858169</v>
+        <v>1713843</v>
       </c>
     </row>
     <row r="44">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2016-7</t>
+          <t>2016-4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>158867816</v>
+        <v>149905449</v>
       </c>
       <c r="D44" t="n">
-        <v>2671186</v>
+        <v>2664327</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10800306</v>
+        <v>10372555</v>
       </c>
       <c r="G44" t="n">
-        <v>1267605</v>
+        <v>1133964</v>
       </c>
       <c r="H44" t="n">
-        <v>4039465</v>
+        <v>3751982</v>
       </c>
       <c r="I44" t="n">
-        <v>1917577</v>
+        <v>1760461</v>
       </c>
     </row>
     <row r="45">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2016-8</t>
+          <t>2016-5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>161746987</v>
+        <v>153030366</v>
       </c>
       <c r="D45" t="n">
-        <v>2672240</v>
+        <v>2666266</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>10978148</v>
+        <v>10543739</v>
       </c>
       <c r="G45" t="n">
-        <v>1317628</v>
+        <v>1180761</v>
       </c>
       <c r="H45" t="n">
-        <v>4136563</v>
+        <v>3849217</v>
       </c>
       <c r="I45" t="n">
-        <v>1974810</v>
+        <v>1814881</v>
       </c>
     </row>
     <row r="46">
@@ -1940,29 +1940,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2016-9</t>
+          <t>2016-6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>164676956</v>
+        <v>155946775</v>
       </c>
       <c r="D46" t="n">
-        <v>2675521</v>
+        <v>2669880</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11129340</v>
+        <v>10670423</v>
       </c>
       <c r="G46" t="n">
-        <v>1352924</v>
+        <v>1218106</v>
       </c>
       <c r="H46" t="n">
-        <v>4225089</v>
+        <v>3941257</v>
       </c>
       <c r="I46" t="n">
-        <v>2029596</v>
+        <v>1858169</v>
       </c>
     </row>
     <row r="47">
@@ -1973,29 +1973,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>168206570</v>
+        <v>158867816</v>
       </c>
       <c r="D47" t="n">
-        <v>2685235</v>
+        <v>2671186</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>11319316</v>
+        <v>10800306</v>
       </c>
       <c r="G47" t="n">
-        <v>1396044</v>
+        <v>1267605</v>
       </c>
       <c r="H47" t="n">
-        <v>4317893</v>
+        <v>4039465</v>
       </c>
       <c r="I47" t="n">
-        <v>2082161</v>
+        <v>1917577</v>
       </c>
     </row>
     <row r="48">
@@ -2006,29 +2006,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>172399792</v>
+        <v>161746987</v>
       </c>
       <c r="D48" t="n">
-        <v>2873575</v>
+        <v>2672240</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>11648066</v>
+        <v>10978148</v>
       </c>
       <c r="G48" t="n">
-        <v>1411833</v>
+        <v>1317628</v>
       </c>
       <c r="H48" t="n">
-        <v>4407885</v>
+        <v>4136563</v>
       </c>
       <c r="I48" t="n">
-        <v>2133974</v>
+        <v>1974810</v>
       </c>
     </row>
     <row r="49">
@@ -2039,29 +2039,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>177172775</v>
+        <v>164676956</v>
       </c>
       <c r="D49" t="n">
-        <v>3157261</v>
+        <v>2675521</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>11860522</v>
+        <v>11129340</v>
       </c>
       <c r="G49" t="n">
-        <v>1424329</v>
+        <v>1352924</v>
       </c>
       <c r="H49" t="n">
-        <v>4502931</v>
+        <v>4225089</v>
       </c>
       <c r="I49" t="n">
-        <v>2187039</v>
+        <v>2029596</v>
       </c>
     </row>
     <row r="50">
@@ -2072,29 +2072,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2017-1</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>182621395</v>
+        <v>168206570</v>
       </c>
       <c r="D50" t="n">
-        <v>3486854</v>
+        <v>2685235</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>12110687</v>
+        <v>11319316</v>
       </c>
       <c r="G50" t="n">
-        <v>1440142</v>
+        <v>1396044</v>
       </c>
       <c r="H50" t="n">
-        <v>4599513</v>
+        <v>4317893</v>
       </c>
       <c r="I50" t="n">
-        <v>2243484</v>
+        <v>2082161</v>
       </c>
     </row>
     <row r="51">
@@ -2105,29 +2105,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2017-2</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>186914114</v>
+        <v>172399792</v>
       </c>
       <c r="D51" t="n">
-        <v>3760053</v>
+        <v>2873575</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>12466372</v>
+        <v>11648066</v>
       </c>
       <c r="G51" t="n">
-        <v>1458695</v>
+        <v>1411833</v>
       </c>
       <c r="H51" t="n">
-        <v>4695282</v>
+        <v>4407885</v>
       </c>
       <c r="I51" t="n">
-        <v>2296075</v>
+        <v>2133974</v>
       </c>
     </row>
     <row r="52">
@@ -2138,29 +2138,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2017-3</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>191018423</v>
+        <v>177172775</v>
       </c>
       <c r="D52" t="n">
-        <v>4062688</v>
+        <v>3157261</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>12810373</v>
+        <v>11860522</v>
       </c>
       <c r="G52" t="n">
-        <v>1489710</v>
+        <v>1424329</v>
       </c>
       <c r="H52" t="n">
-        <v>4803756</v>
+        <v>4502931</v>
       </c>
       <c r="I52" t="n">
-        <v>2354540</v>
+        <v>2187039</v>
       </c>
     </row>
     <row r="53">
@@ -2171,29 +2171,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2017-4</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>194385473</v>
+        <v>10460583124</v>
       </c>
       <c r="D53" t="n">
-        <v>4066047</v>
+        <v>142292539</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>12990987</v>
+        <v>663218627</v>
       </c>
       <c r="G53" t="n">
-        <v>1539994</v>
+        <v>75242564</v>
       </c>
       <c r="H53" t="n">
-        <v>4898540</v>
+        <v>250503866</v>
       </c>
       <c r="I53" t="n">
-        <v>2411220</v>
+        <v>103979806</v>
       </c>
     </row>
     <row r="54">
@@ -2204,29 +2204,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2017-5</t>
+          <t>2017-1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>197500056</v>
+        <v>182621395</v>
       </c>
       <c r="D54" t="n">
-        <v>4073782</v>
+        <v>3486854</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>13209056</v>
+        <v>12110687</v>
       </c>
       <c r="G54" t="n">
-        <v>1592453</v>
+        <v>1440142</v>
       </c>
       <c r="H54" t="n">
-        <v>5001668</v>
+        <v>4599513</v>
       </c>
       <c r="I54" t="n">
-        <v>2473006</v>
+        <v>2243484</v>
       </c>
     </row>
     <row r="55">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2017-6</t>
+          <t>2017-2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>200370433</v>
+        <v>186914114</v>
       </c>
       <c r="D55" t="n">
-        <v>4097957</v>
+        <v>3760053</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>13381310</v>
+        <v>12466372</v>
       </c>
       <c r="G55" t="n">
-        <v>1649871</v>
+        <v>1458695</v>
       </c>
       <c r="H55" t="n">
-        <v>5090791</v>
+        <v>4695282</v>
       </c>
       <c r="I55" t="n">
-        <v>2534993</v>
+        <v>2296075</v>
       </c>
     </row>
     <row r="56">
@@ -2270,29 +2270,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2017-7</t>
+          <t>2017-3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>203326626</v>
+        <v>191018423</v>
       </c>
       <c r="D56" t="n">
-        <v>4101330</v>
+        <v>4062688</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>13596965</v>
+        <v>12810373</v>
       </c>
       <c r="G56" t="n">
-        <v>1700608</v>
+        <v>1489710</v>
       </c>
       <c r="H56" t="n">
-        <v>5185740</v>
+        <v>4803756</v>
       </c>
       <c r="I56" t="n">
-        <v>2603603</v>
+        <v>2354540</v>
       </c>
     </row>
     <row r="57">
@@ -2303,29 +2303,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2017-8</t>
+          <t>2017-4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>206240243</v>
+        <v>194385473</v>
       </c>
       <c r="D57" t="n">
-        <v>4103503</v>
+        <v>4066047</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>13771561</v>
+        <v>12990987</v>
       </c>
       <c r="G57" t="n">
-        <v>1749464</v>
+        <v>1539994</v>
       </c>
       <c r="H57" t="n">
-        <v>5279787</v>
+        <v>4898540</v>
       </c>
       <c r="I57" t="n">
-        <v>2671724</v>
+        <v>2411220</v>
       </c>
     </row>
     <row r="58">
@@ -2336,29 +2336,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2017-9</t>
+          <t>2017-5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>209300106</v>
+        <v>197500056</v>
       </c>
       <c r="D58" t="n">
-        <v>4107267</v>
+        <v>4073782</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>14013231</v>
+        <v>13209056</v>
       </c>
       <c r="G58" t="n">
-        <v>1783953</v>
+        <v>1592453</v>
       </c>
       <c r="H58" t="n">
-        <v>5371873</v>
+        <v>5001668</v>
       </c>
       <c r="I58" t="n">
-        <v>2730515</v>
+        <v>2473006</v>
       </c>
     </row>
     <row r="59">
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>212676205</v>
+        <v>200370433</v>
       </c>
       <c r="D59" t="n">
-        <v>4112727</v>
+        <v>4097957</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>14243572</v>
+        <v>13381310</v>
       </c>
       <c r="G59" t="n">
-        <v>1809619</v>
+        <v>1649871</v>
       </c>
       <c r="H59" t="n">
-        <v>5462750</v>
+        <v>5090791</v>
       </c>
       <c r="I59" t="n">
-        <v>2783848</v>
+        <v>2534993</v>
       </c>
     </row>
     <row r="60">
@@ -2402,29 +2402,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>216885109</v>
+        <v>203326626</v>
       </c>
       <c r="D60" t="n">
-        <v>4338233</v>
+        <v>4101330</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>14518200</v>
+        <v>13596965</v>
       </c>
       <c r="G60" t="n">
-        <v>1827486</v>
+        <v>1700608</v>
       </c>
       <c r="H60" t="n">
-        <v>5554058</v>
+        <v>5185740</v>
       </c>
       <c r="I60" t="n">
-        <v>2842071</v>
+        <v>2603603</v>
       </c>
     </row>
     <row r="61">
@@ -2435,29 +2435,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>221751600</v>
+        <v>206240243</v>
       </c>
       <c r="D61" t="n">
-        <v>4680359</v>
+        <v>4103503</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>14951719</v>
+        <v>13771561</v>
       </c>
       <c r="G61" t="n">
-        <v>1838067</v>
+        <v>1749464</v>
       </c>
       <c r="H61" t="n">
-        <v>5661724</v>
+        <v>5279787</v>
       </c>
       <c r="I61" t="n">
-        <v>2908292</v>
+        <v>2671724</v>
       </c>
     </row>
     <row r="62">
@@ -2468,29 +2468,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2018-1</t>
+          <t>2017-9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>226497146</v>
+        <v>209300106</v>
       </c>
       <c r="D62" t="n">
-        <v>5022083</v>
+        <v>4107267</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>15492319</v>
+        <v>14013231</v>
       </c>
       <c r="G62" t="n">
-        <v>1846231</v>
+        <v>1783953</v>
       </c>
       <c r="H62" t="n">
-        <v>5786887</v>
+        <v>5371873</v>
       </c>
       <c r="I62" t="n">
-        <v>2970319</v>
+        <v>2730515</v>
       </c>
     </row>
     <row r="63">
@@ -2501,29 +2501,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2018-2</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>231341848</v>
+        <v>212676205</v>
       </c>
       <c r="D63" t="n">
-        <v>5364184</v>
+        <v>4112727</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>15862077</v>
+        <v>14243572</v>
       </c>
       <c r="G63" t="n">
-        <v>1873844</v>
+        <v>1809619</v>
       </c>
       <c r="H63" t="n">
-        <v>5879705</v>
+        <v>5462750</v>
       </c>
       <c r="I63" t="n">
-        <v>3028071</v>
+        <v>2783848</v>
       </c>
     </row>
     <row r="64">
@@ -2534,29 +2534,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2018-3</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>236167223</v>
+        <v>216885109</v>
       </c>
       <c r="D64" t="n">
-        <v>5731990</v>
+        <v>4338233</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>16287456</v>
+        <v>14518200</v>
       </c>
       <c r="G64" t="n">
-        <v>1903479</v>
+        <v>1827486</v>
       </c>
       <c r="H64" t="n">
-        <v>5966328</v>
+        <v>5554058</v>
       </c>
       <c r="I64" t="n">
-        <v>3091606</v>
+        <v>2842071</v>
       </c>
     </row>
     <row r="65">
@@ -2567,29 +2567,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2018-4</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>239683185</v>
+        <v>221751600</v>
       </c>
       <c r="D65" t="n">
-        <v>5735848</v>
+        <v>4680359</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>16559979</v>
+        <v>14951719</v>
       </c>
       <c r="G65" t="n">
-        <v>1948763</v>
+        <v>1838067</v>
       </c>
       <c r="H65" t="n">
-        <v>6062821</v>
+        <v>5661724</v>
       </c>
       <c r="I65" t="n">
-        <v>3152005</v>
+        <v>2908292</v>
       </c>
     </row>
     <row r="66">
@@ -2600,29 +2600,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2018-5</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>242748747</v>
+        <v>23344156031</v>
       </c>
       <c r="D66" t="n">
-        <v>5738795</v>
+        <v>333575878</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>16755000</v>
+        <v>1488501287</v>
       </c>
       <c r="G66" t="n">
-        <v>2009939</v>
+        <v>170365190</v>
       </c>
       <c r="H66" t="n">
-        <v>6159385</v>
+        <v>562613214</v>
       </c>
       <c r="I66" t="n">
-        <v>3220751</v>
+        <v>238812983</v>
       </c>
     </row>
     <row r="67">
@@ -2633,29 +2633,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2018-6</t>
+          <t>2018-1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>245638874</v>
+        <v>226497146</v>
       </c>
       <c r="D67" t="n">
-        <v>5743198</v>
+        <v>5022083</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>16922000</v>
+        <v>15492319</v>
       </c>
       <c r="G67" t="n">
-        <v>2065048</v>
+        <v>1846231</v>
       </c>
       <c r="H67" t="n">
-        <v>6246646</v>
+        <v>5786887</v>
       </c>
       <c r="I67" t="n">
-        <v>3284573</v>
+        <v>2970319</v>
       </c>
     </row>
     <row r="68">
@@ -2666,29 +2666,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2018-7</t>
+          <t>2018-2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>248619736</v>
+        <v>231341848</v>
       </c>
       <c r="D68" t="n">
-        <v>5749848</v>
+        <v>5364184</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>17080284</v>
+        <v>15862077</v>
       </c>
       <c r="G68" t="n">
-        <v>2127022</v>
+        <v>1873844</v>
       </c>
       <c r="H68" t="n">
-        <v>6339113</v>
+        <v>5879705</v>
       </c>
       <c r="I68" t="n">
-        <v>3355210</v>
+        <v>3028071</v>
       </c>
     </row>
     <row r="69">
@@ -2699,29 +2699,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2018-8</t>
+          <t>2018-3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>251553160</v>
+        <v>236167223</v>
       </c>
       <c r="D69" t="n">
-        <v>5753809</v>
+        <v>5731990</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>17205326</v>
+        <v>16287456</v>
       </c>
       <c r="G69" t="n">
-        <v>2177558</v>
+        <v>1903479</v>
       </c>
       <c r="H69" t="n">
-        <v>6438776</v>
+        <v>5966328</v>
       </c>
       <c r="I69" t="n">
-        <v>3426766</v>
+        <v>3091606</v>
       </c>
     </row>
     <row r="70">
@@ -2732,29 +2732,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2018-9</t>
+          <t>2018-4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>254470341</v>
+        <v>239683185</v>
       </c>
       <c r="D70" t="n">
-        <v>5756564</v>
+        <v>5735848</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>17443791</v>
+        <v>16559979</v>
       </c>
       <c r="G70" t="n">
-        <v>2224607</v>
+        <v>1948763</v>
       </c>
       <c r="H70" t="n">
-        <v>6535654</v>
+        <v>6062821</v>
       </c>
       <c r="I70" t="n">
-        <v>3490505</v>
+        <v>3152005</v>
       </c>
     </row>
     <row r="71">
@@ -2765,29 +2765,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>257960288</v>
+        <v>242748747</v>
       </c>
       <c r="D71" t="n">
-        <v>5766541</v>
+        <v>5738795</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>17745070</v>
+        <v>16755000</v>
       </c>
       <c r="G71" t="n">
-        <v>2261224</v>
+        <v>2009939</v>
       </c>
       <c r="H71" t="n">
-        <v>6623373</v>
+        <v>6159385</v>
       </c>
       <c r="I71" t="n">
-        <v>3545164</v>
+        <v>3220751</v>
       </c>
     </row>
     <row r="72">
@@ -2798,29 +2798,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>262236618</v>
+        <v>245638874</v>
       </c>
       <c r="D72" t="n">
-        <v>6031985</v>
+        <v>5743198</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>18132938</v>
+        <v>16922000</v>
       </c>
       <c r="G72" t="n">
-        <v>2284120</v>
+        <v>2065048</v>
       </c>
       <c r="H72" t="n">
-        <v>6707832</v>
+        <v>6246646</v>
       </c>
       <c r="I72" t="n">
-        <v>3600170</v>
+        <v>3284573</v>
       </c>
     </row>
     <row r="73">
@@ -2831,29 +2831,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-7</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>266804705</v>
+        <v>248619736</v>
       </c>
       <c r="D73" t="n">
-        <v>6366699</v>
+        <v>5749848</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>18559428</v>
+        <v>17080284</v>
       </c>
       <c r="G73" t="n">
-        <v>2289123</v>
+        <v>2127022</v>
       </c>
       <c r="H73" t="n">
-        <v>6811060</v>
+        <v>6339113</v>
       </c>
       <c r="I73" t="n">
-        <v>3663338</v>
+        <v>3355210</v>
       </c>
     </row>
     <row r="74">
@@ -2864,29 +2864,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2019-1</t>
+          <t>2018-8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>271922457</v>
+        <v>251553160</v>
       </c>
       <c r="D74" t="n">
-        <v>6767283</v>
+        <v>5753809</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>18824929</v>
+        <v>17205326</v>
       </c>
       <c r="G74" t="n">
-        <v>2304241</v>
+        <v>2177558</v>
       </c>
       <c r="H74" t="n">
-        <v>6904969</v>
+        <v>6438776</v>
       </c>
       <c r="I74" t="n">
-        <v>3718895</v>
+        <v>3426766</v>
       </c>
     </row>
     <row r="75">
@@ -2897,29 +2897,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2019-2</t>
+          <t>2018-9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>276175273</v>
+        <v>254470341</v>
       </c>
       <c r="D75" t="n">
-        <v>7120244</v>
+        <v>5756564</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>19144207</v>
+        <v>17443791</v>
       </c>
       <c r="G75" t="n">
-        <v>2333928</v>
+        <v>2224607</v>
       </c>
       <c r="H75" t="n">
-        <v>7001864</v>
+        <v>6535654</v>
       </c>
       <c r="I75" t="n">
-        <v>3781282</v>
+        <v>3490505</v>
       </c>
     </row>
     <row r="76">
@@ -2930,29 +2930,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2019-3</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>280402816</v>
+        <v>257960288</v>
       </c>
       <c r="D76" t="n">
-        <v>7492363</v>
+        <v>5766541</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>19652600</v>
+        <v>17745070</v>
       </c>
       <c r="G76" t="n">
-        <v>2375909</v>
+        <v>2261224</v>
       </c>
       <c r="H76" t="n">
-        <v>7090576</v>
+        <v>6623373</v>
       </c>
       <c r="I76" t="n">
-        <v>3851268</v>
+        <v>3545164</v>
       </c>
     </row>
     <row r="77">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2019-4</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>284108751</v>
+        <v>262236618</v>
       </c>
       <c r="D77" t="n">
-        <v>7498014</v>
+        <v>6031985</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>19926036</v>
+        <v>18132938</v>
       </c>
       <c r="G77" t="n">
-        <v>2424295</v>
+        <v>2284120</v>
       </c>
       <c r="H77" t="n">
-        <v>7181279</v>
+        <v>6707832</v>
       </c>
       <c r="I77" t="n">
-        <v>3919504</v>
+        <v>3600170</v>
       </c>
     </row>
     <row r="78">
@@ -2996,29 +2996,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2019-5</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>287376851</v>
+        <v>266804705</v>
       </c>
       <c r="D78" t="n">
-        <v>7500302</v>
+        <v>6366699</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20137634</v>
+        <v>18559428</v>
       </c>
       <c r="G78" t="n">
-        <v>2485386</v>
+        <v>2289123</v>
       </c>
       <c r="H78" t="n">
-        <v>7276510</v>
+        <v>6811060</v>
       </c>
       <c r="I78" t="n">
-        <v>3992785</v>
+        <v>3663338</v>
       </c>
     </row>
     <row r="79">
@@ -3029,29 +3029,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2019-6</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>290342646</v>
+        <v>49652033933</v>
       </c>
       <c r="D79" t="n">
-        <v>7502970</v>
+        <v>735913300</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>20328380</v>
+        <v>3181048242</v>
       </c>
       <c r="G79" t="n">
-        <v>2546374</v>
+        <v>365741338</v>
       </c>
       <c r="H79" t="n">
-        <v>7371893</v>
+        <v>1200784008</v>
       </c>
       <c r="I79" t="n">
-        <v>4057645</v>
+        <v>517454444</v>
       </c>
     </row>
     <row r="80">
@@ -3062,29 +3062,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2019-7</t>
+          <t>2019-1</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>293395438</v>
+        <v>271922457</v>
       </c>
       <c r="D80" t="n">
-        <v>7507211</v>
+        <v>6767283</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>20537787</v>
+        <v>18824929</v>
       </c>
       <c r="G80" t="n">
-        <v>2615528</v>
+        <v>2304241</v>
       </c>
       <c r="H80" t="n">
-        <v>7469255</v>
+        <v>6904969</v>
       </c>
       <c r="I80" t="n">
-        <v>4131513</v>
+        <v>3718895</v>
       </c>
     </row>
     <row r="81">
@@ -3095,29 +3095,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019-8</t>
+          <t>2019-2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>296330736</v>
+        <v>276175273</v>
       </c>
       <c r="D81" t="n">
-        <v>7509991</v>
+        <v>7120244</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>20757252</v>
+        <v>19144207</v>
       </c>
       <c r="G81" t="n">
-        <v>2675186</v>
+        <v>2333928</v>
       </c>
       <c r="H81" t="n">
-        <v>7571479</v>
+        <v>7001864</v>
       </c>
       <c r="I81" t="n">
-        <v>4205317</v>
+        <v>3781282</v>
       </c>
     </row>
     <row r="82">
@@ -3128,29 +3128,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2019-9</t>
+          <t>2019-3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>299287834</v>
+        <v>280402816</v>
       </c>
       <c r="D82" t="n">
-        <v>7513039</v>
+        <v>7492363</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>21096182</v>
+        <v>19652600</v>
       </c>
       <c r="G82" t="n">
-        <v>2723986</v>
+        <v>2375909</v>
       </c>
       <c r="H82" t="n">
-        <v>7667275</v>
+        <v>7090576</v>
       </c>
       <c r="I82" t="n">
-        <v>4273615</v>
+        <v>3851268</v>
       </c>
     </row>
     <row r="83">
@@ -3161,29 +3161,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>302846001</v>
+        <v>284108751</v>
       </c>
       <c r="D83" t="n">
-        <v>7516918</v>
+        <v>7498014</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>21469122</v>
+        <v>19926036</v>
       </c>
       <c r="G83" t="n">
-        <v>2753581</v>
+        <v>2424295</v>
       </c>
       <c r="H83" t="n">
-        <v>7767547</v>
+        <v>7181279</v>
       </c>
       <c r="I83" t="n">
-        <v>4337514</v>
+        <v>3919504</v>
       </c>
     </row>
     <row r="84">
@@ -3194,29 +3194,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-5</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>307253355</v>
+        <v>287376851</v>
       </c>
       <c r="D84" t="n">
-        <v>7823351</v>
+        <v>7500302</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>21889303</v>
+        <v>20137634</v>
       </c>
       <c r="G84" t="n">
-        <v>2773379</v>
+        <v>2485386</v>
       </c>
       <c r="H84" t="n">
-        <v>7877546</v>
+        <v>7276510</v>
       </c>
       <c r="I84" t="n">
-        <v>4400769</v>
+        <v>3992785</v>
       </c>
     </row>
     <row r="85">
@@ -3227,29 +3227,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-6</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>312063721</v>
+        <v>290342646</v>
       </c>
       <c r="D85" t="n">
-        <v>8195230</v>
+        <v>7502970</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>22437744</v>
+        <v>20328380</v>
       </c>
       <c r="G85" t="n">
-        <v>2791111</v>
+        <v>2546374</v>
       </c>
       <c r="H85" t="n">
-        <v>7995013</v>
+        <v>7371893</v>
       </c>
       <c r="I85" t="n">
-        <v>4472029</v>
+        <v>4057645</v>
       </c>
     </row>
     <row r="86">
@@ -3260,29 +3260,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-1</t>
+          <t>2019-7</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>316974456</v>
+        <v>293395438</v>
       </c>
       <c r="D86" t="n">
-        <v>8573277</v>
+        <v>7507211</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>22943387</v>
+        <v>20537787</v>
       </c>
       <c r="G86" t="n">
-        <v>2808945</v>
+        <v>2615528</v>
       </c>
       <c r="H86" t="n">
-        <v>8113687</v>
+        <v>7469255</v>
       </c>
       <c r="I86" t="n">
-        <v>4545896</v>
+        <v>4131513</v>
       </c>
     </row>
     <row r="87">
@@ -3293,29 +3293,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-2</t>
+          <t>2019-8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>321322723</v>
+        <v>296330736</v>
       </c>
       <c r="D87" t="n">
-        <v>8946654</v>
+        <v>7509991</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>23622864</v>
+        <v>20757252</v>
       </c>
       <c r="G87" t="n">
-        <v>2834526</v>
+        <v>2675186</v>
       </c>
       <c r="H87" t="n">
-        <v>8229273</v>
+        <v>7571479</v>
       </c>
       <c r="I87" t="n">
-        <v>4614818</v>
+        <v>4205317</v>
       </c>
     </row>
     <row r="88">
@@ -3326,29 +3326,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-3</t>
+          <t>2019-9</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>325581799</v>
+        <v>299287834</v>
       </c>
       <c r="D88" t="n">
-        <v>9330824</v>
+        <v>7513039</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>24137389</v>
+        <v>21096182</v>
       </c>
       <c r="G88" t="n">
-        <v>2875150</v>
+        <v>2723986</v>
       </c>
       <c r="H88" t="n">
-        <v>8346295</v>
+        <v>7667275</v>
       </c>
       <c r="I88" t="n">
-        <v>4688122</v>
+        <v>4273615</v>
       </c>
     </row>
     <row r="89">
@@ -3359,29 +3359,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-4</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>328620052</v>
+        <v>302846001</v>
       </c>
       <c r="D89" t="n">
-        <v>9334177</v>
+        <v>7516918</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>24392642</v>
+        <v>21469122</v>
       </c>
       <c r="G89" t="n">
-        <v>2929339</v>
+        <v>2753581</v>
       </c>
       <c r="H89" t="n">
-        <v>8443387</v>
+        <v>7767547</v>
       </c>
       <c r="I89" t="n">
-        <v>4759005</v>
+        <v>4337514</v>
       </c>
     </row>
     <row r="90">
@@ -3392,29 +3392,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-5</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>331497963</v>
+        <v>307253355</v>
       </c>
       <c r="D90" t="n">
-        <v>9337299</v>
+        <v>7823351</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>24695392</v>
+        <v>21889303</v>
       </c>
       <c r="G90" t="n">
-        <v>3001651</v>
+        <v>2773379</v>
       </c>
       <c r="H90" t="n">
-        <v>8536661</v>
+        <v>7877546</v>
       </c>
       <c r="I90" t="n">
-        <v>4836437</v>
+        <v>4400769</v>
       </c>
     </row>
     <row r="91">
@@ -3425,29 +3425,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-6</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>334401615</v>
+        <v>312063721</v>
       </c>
       <c r="D91" t="n">
-        <v>9353735</v>
+        <v>8195230</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>24907587</v>
+        <v>22437744</v>
       </c>
       <c r="G91" t="n">
-        <v>3061713</v>
+        <v>2791111</v>
       </c>
       <c r="H91" t="n">
-        <v>8626027</v>
+        <v>7995013</v>
       </c>
       <c r="I91" t="n">
-        <v>4900457</v>
+        <v>4472029</v>
       </c>
     </row>
     <row r="92">
@@ -3458,29 +3458,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-7</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>337438531</v>
+        <v>102805573745</v>
       </c>
       <c r="D92" t="n">
-        <v>9391776</v>
+        <v>1561773516</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>25122674</v>
+        <v>6608297660</v>
       </c>
       <c r="G92" t="n">
-        <v>3130452</v>
+        <v>762285580</v>
       </c>
       <c r="H92" t="n">
-        <v>8723520</v>
+        <v>2490743222</v>
       </c>
       <c r="I92" t="n">
-        <v>4977421</v>
+        <v>1084051024</v>
       </c>
     </row>
     <row r="93">
@@ -3491,29 +3491,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-8</t>
+          <t>2020-1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>340388534</v>
+        <v>316974456</v>
       </c>
       <c r="D93" t="n">
-        <v>9402396</v>
+        <v>8573277</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>25358584</v>
+        <v>22943387</v>
       </c>
       <c r="G93" t="n">
-        <v>3191175</v>
+        <v>2808945</v>
       </c>
       <c r="H93" t="n">
-        <v>8818238</v>
+        <v>8113687</v>
       </c>
       <c r="I93" t="n">
-        <v>5057002</v>
+        <v>4545896</v>
       </c>
     </row>
     <row r="94">
@@ -3524,29 +3524,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-9</t>
+          <t>2020-2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>343448849</v>
+        <v>321322723</v>
       </c>
       <c r="D94" t="n">
-        <v>9420625</v>
+        <v>8946654</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>25562929</v>
+        <v>23622864</v>
       </c>
       <c r="G94" t="n">
-        <v>3239651</v>
+        <v>2834526</v>
       </c>
       <c r="H94" t="n">
-        <v>8910401</v>
+        <v>8229273</v>
       </c>
       <c r="I94" t="n">
-        <v>5132304</v>
+        <v>4614818</v>
       </c>
     </row>
     <row r="95">
@@ -3557,29 +3557,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>347226083</v>
+        <v>325581799</v>
       </c>
       <c r="D95" t="n">
-        <v>9431537</v>
+        <v>9330824</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>26011213</v>
+        <v>24137389</v>
       </c>
       <c r="G95" t="n">
-        <v>3271291</v>
+        <v>2875150</v>
       </c>
       <c r="H95" t="n">
-        <v>9007534</v>
+        <v>8346295</v>
       </c>
       <c r="I95" t="n">
-        <v>5204182</v>
+        <v>4688122</v>
       </c>
     </row>
     <row r="96">
@@ -3590,29 +3590,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-4</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>351140657</v>
+        <v>328620052</v>
       </c>
       <c r="D96" t="n">
-        <v>9725007</v>
+        <v>9334177</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>26395694</v>
+        <v>24392642</v>
       </c>
       <c r="G96" t="n">
-        <v>3296921</v>
+        <v>2929339</v>
       </c>
       <c r="H96" t="n">
-        <v>9112671</v>
+        <v>8443387</v>
       </c>
       <c r="I96" t="n">
-        <v>5272750</v>
+        <v>4759005</v>
       </c>
     </row>
     <row r="97">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-5</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>355948561</v>
+        <v>331497963</v>
       </c>
       <c r="D97" t="n">
-        <v>10087518</v>
+        <v>9337299</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>26935858</v>
+        <v>24695392</v>
       </c>
       <c r="G97" t="n">
-        <v>3313873</v>
+        <v>3001651</v>
       </c>
       <c r="H97" t="n">
-        <v>9231853</v>
+        <v>8536661</v>
       </c>
       <c r="I97" t="n">
-        <v>5345248</v>
+        <v>4836437</v>
       </c>
     </row>
     <row r="98">
@@ -3656,29 +3656,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-1</t>
+          <t>2020-6</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>361277546</v>
+        <v>334401615</v>
       </c>
       <c r="D98" t="n">
-        <v>10465696</v>
+        <v>9353735</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>27343961</v>
+        <v>24907587</v>
       </c>
       <c r="G98" t="n">
-        <v>3329859</v>
+        <v>3061713</v>
       </c>
       <c r="H98" t="n">
-        <v>9354988</v>
+        <v>8626027</v>
       </c>
       <c r="I98" t="n">
-        <v>5416005</v>
+        <v>4900457</v>
       </c>
     </row>
     <row r="99">
@@ -3689,29 +3689,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-2</t>
+          <t>2020-7</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>365819720</v>
+        <v>337438531</v>
       </c>
       <c r="D99" t="n">
-        <v>10822309</v>
+        <v>9391776</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>27777746</v>
+        <v>25122674</v>
       </c>
       <c r="G99" t="n">
-        <v>3355966</v>
+        <v>3130452</v>
       </c>
       <c r="H99" t="n">
-        <v>9465696</v>
+        <v>8723520</v>
       </c>
       <c r="I99" t="n">
-        <v>5482179</v>
+        <v>4977421</v>
       </c>
     </row>
     <row r="100">
@@ -3722,29 +3722,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-3</t>
+          <t>2020-8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>370234538</v>
+        <v>340388534</v>
       </c>
       <c r="D100" t="n">
-        <v>11185828</v>
+        <v>9402396</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>28160292</v>
+        <v>25358584</v>
       </c>
       <c r="G100" t="n">
-        <v>3365043</v>
+        <v>3191175</v>
       </c>
       <c r="H100" t="n">
-        <v>9579576</v>
+        <v>8818238</v>
       </c>
       <c r="I100" t="n">
-        <v>5555287</v>
+        <v>5057002</v>
       </c>
     </row>
     <row r="101">
@@ -3755,29 +3755,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-4</t>
+          <t>2020-9</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>373936115</v>
+        <v>343448849</v>
       </c>
       <c r="D101" t="n">
-        <v>11214627</v>
+        <v>9420625</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>28460101</v>
+        <v>25562929</v>
       </c>
       <c r="G101" t="n">
-        <v>3446642</v>
+        <v>3239651</v>
       </c>
       <c r="H101" t="n">
-        <v>9679140</v>
+        <v>8910401</v>
       </c>
       <c r="I101" t="n">
-        <v>5618762</v>
+        <v>5132304</v>
       </c>
     </row>
     <row r="102">
@@ -3788,29 +3788,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-5</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>377370309</v>
+        <v>347226083</v>
       </c>
       <c r="D102" t="n">
-        <v>11229905</v>
+        <v>9431537</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>28888278</v>
+        <v>26011213</v>
       </c>
       <c r="G102" t="n">
-        <v>3518507</v>
+        <v>3271291</v>
       </c>
       <c r="H102" t="n">
-        <v>9778531</v>
+        <v>9007534</v>
       </c>
       <c r="I102" t="n">
-        <v>5691026</v>
+        <v>5204182</v>
       </c>
     </row>
     <row r="103">
@@ -3821,29 +3821,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-6</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>380376817</v>
+        <v>351140657</v>
       </c>
       <c r="D103" t="n">
-        <v>11241870</v>
+        <v>9725007</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>28998253</v>
+        <v>26395694</v>
       </c>
       <c r="G103" t="n">
-        <v>3587188</v>
+        <v>3296921</v>
       </c>
       <c r="H103" t="n">
-        <v>9867877</v>
+        <v>9112671</v>
       </c>
       <c r="I103" t="n">
-        <v>5761785</v>
+        <v>5272750</v>
       </c>
     </row>
     <row r="104">
@@ -3854,29 +3854,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-7</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>383483224</v>
+        <v>355948561</v>
       </c>
       <c r="D104" t="n">
-        <v>11246233</v>
+        <v>10087518</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>29236957</v>
+        <v>26935858</v>
       </c>
       <c r="G104" t="n">
-        <v>3664069</v>
+        <v>3313873</v>
       </c>
       <c r="H104" t="n">
-        <v>9961858</v>
+        <v>9231853</v>
       </c>
       <c r="I104" t="n">
-        <v>5840867</v>
+        <v>5345248</v>
       </c>
     </row>
     <row r="105">
@@ -3887,29 +3887,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-8</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>386443968</v>
+        <v>209645137313</v>
       </c>
       <c r="D105" t="n">
-        <v>11256373</v>
+        <v>3235881857</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>29442406</v>
+        <v>13516681533</v>
       </c>
       <c r="G105" t="n">
-        <v>3731722</v>
+        <v>1561525847</v>
       </c>
       <c r="H105" t="n">
-        <v>10052654</v>
+        <v>5085585991</v>
       </c>
       <c r="I105" t="n">
-        <v>5923485</v>
+        <v>2227435690</v>
       </c>
     </row>
     <row r="106">
@@ -3920,29 +3920,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-9</t>
+          <t>2021-1</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>389483208</v>
+        <v>361277546</v>
       </c>
       <c r="D106" t="n">
-        <v>11267033</v>
+        <v>10465696</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>29642947</v>
+        <v>27343961</v>
       </c>
       <c r="G106" t="n">
-        <v>3793635</v>
+        <v>3329859</v>
       </c>
       <c r="H106" t="n">
-        <v>10141071</v>
+        <v>9354988</v>
       </c>
       <c r="I106" t="n">
-        <v>5997358</v>
+        <v>5416005</v>
       </c>
     </row>
     <row r="107">
@@ -3953,29 +3953,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-2</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>392915898</v>
+        <v>365819720</v>
       </c>
       <c r="D107" t="n">
-        <v>11315493</v>
+        <v>10822309</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>29996278</v>
+        <v>27777746</v>
       </c>
       <c r="G107" t="n">
-        <v>3841691</v>
+        <v>3355966</v>
       </c>
       <c r="H107" t="n">
-        <v>10226757</v>
+        <v>9465696</v>
       </c>
       <c r="I107" t="n">
-        <v>6062949</v>
+        <v>5482179</v>
       </c>
     </row>
     <row r="108">
@@ -3986,29 +3986,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>397292809</v>
+        <v>370234538</v>
       </c>
       <c r="D108" t="n">
-        <v>11679730</v>
+        <v>11185828</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>30276511</v>
+        <v>28160292</v>
       </c>
       <c r="G108" t="n">
-        <v>3869245</v>
+        <v>3365043</v>
       </c>
       <c r="H108" t="n">
-        <v>10329414</v>
+        <v>9579576</v>
       </c>
       <c r="I108" t="n">
-        <v>6132032</v>
+        <v>5555287</v>
       </c>
     </row>
     <row r="109">
@@ -4019,29 +4019,326 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>2021-4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>373936115</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11214627</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>28460101</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3446642</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9679140</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5618762</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021-5</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>377370309</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11229905</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28888278</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3518507</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9778531</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5691026</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021-6</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>380376817</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11241870</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>28998253</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3587188</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9867877</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5761785</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021-7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>383483224</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11246233</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>29236957</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3664069</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9961858</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5840867</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021-8</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>386443968</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11256373</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>29442406</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3731722</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10052654</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5923485</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021-9</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>389483208</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11267033</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>29642947</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3793635</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10141071</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5997358</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>392915898</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11315493</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>29996278</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3841691</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10226757</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6062949</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>397292809</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11679730</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>30276511</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3869245</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10329414</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6132032</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>2021-12</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C117" t="n">
         <v>402224735</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D117" t="n">
         <v>12183451</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
         <v>30781997</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G117" t="n">
         <v>3884400</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H117" t="n">
         <v>10435081</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I117" t="n">
         <v>6209290</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>423871133513</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6606872262</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>27382368793</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3166439661</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10290044625</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4524562405</v>
       </c>
     </row>
   </sheetData>
